--- a/scr/main/resources/backups/StudentData_Backup.xlsx
+++ b/scr/main/resources/backups/StudentData_Backup.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecha\Documents\GitHub\Invited-Meeting-Scheduler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecha\Documents\GitHub\Invited-Meeting-Scheduler\scr\main\resources\backups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EC45DB-72A6-4B32-8D9A-A111DC5F2EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FDE5A1-2D5D-47BE-9E8E-CF9C5B439CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="1470" windowWidth="13260" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="3720" windowWidth="13260" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
-    <sheet name="ScheduleData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -47,21 +46,6 @@
   </si>
   <si>
     <t>Humanities</t>
-  </si>
-  <si>
-    <t>Rotations Needed</t>
-  </si>
-  <si>
-    <t>ROT1</t>
-  </si>
-  <si>
-    <t>ROT2</t>
-  </si>
-  <si>
-    <t>ROT3</t>
-  </si>
-  <si>
-    <t>ROT4</t>
   </si>
 </sst>
 </file>
@@ -399,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,45 +1576,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>